--- a/data/evaluation/evaluation_South_Spring_Zucchini.xlsx
+++ b/data/evaluation/evaluation_South_Spring_Zucchini.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1334.429594356261</v>
+        <v>1341.096261022928</v>
       </c>
       <c r="C3" t="n">
-        <v>3661483.946852541</v>
+        <v>3664550.613519208</v>
       </c>
       <c r="D3" t="n">
-        <v>1913.50044338969</v>
+        <v>1914.301599414055</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.836691026612835</v>
+        <v>-2.839904437528299</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1216.435940276938</v>
+        <v>1271.955676599584</v>
       </c>
       <c r="C4" t="n">
-        <v>2961591.459980553</v>
+        <v>3150570.070905296</v>
       </c>
       <c r="D4" t="n">
-        <v>1720.927499919899</v>
+        <v>1774.984526948135</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.103307714558772</v>
+        <v>-2.301329213841866</v>
       </c>
     </row>
     <row r="5">
